--- a/Deliverables/sSQA.xlsx
+++ b/Deliverables/sSQA.xlsx
@@ -1,26 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Architecture\Architecture\Deliverables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDEFA71-7156-4240-BF85-AA95639DAF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Target (T)</t>
+  </si>
+  <si>
+    <t>Current (C)</t>
+  </si>
+  <si>
+    <t>Health (H)</t>
+  </si>
+  <si>
+    <t>Importance (I)</t>
+  </si>
+  <si>
+    <t>Focus (F)</t>
+  </si>
+  <si>
+    <t>Event Broker</t>
+  </si>
+  <si>
+    <t>Odds Updater</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actor model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(plugin)</t>
+    </r>
+  </si>
+  <si>
+    <t>Load Balancer</t>
+  </si>
+  <si>
+    <t>Combo (deliverable 3)</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Modifiability</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Important comments</t>
+  </si>
+  <si>
+    <t>Retry not implemented at all, therefore current = low</t>
+  </si>
+  <si>
+    <t>No decision regarding DB has been made. Such as 1 single repo, or if we have mutliple replicas with some being read-only</t>
+  </si>
+  <si>
+    <t>Mostly affects only trigger-orders, which is not a key money driver of this project</t>
+  </si>
+  <si>
+    <t>Decrease, as we have more indirection layers and overhead</t>
+  </si>
+  <si>
+    <t>Currently doesn't support multiple bookmakers. All bookmakers are a fictional string with same logic</t>
+  </si>
+  <si>
+    <t>Consistent UI is a given, when we are using the microkernel, because they only use our site, and are never shown other bookmakers</t>
+  </si>
+  <si>
+    <t>In general the broker and updater only handle odds data and work internally. Failure will not have catastrophic consequences for the user.</t>
+  </si>
+  <si>
+    <t>Modifiablity</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For safety, lacking retry logic makes these high in focus </t>
+  </si>
+  <si>
+    <t>Since bottle necks can be a huge problem, odds updater is high in focus</t>
+  </si>
+  <si>
+    <t>They also lack implementations for different bookmakers, which is why modifiablity is high focus</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +164,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +223,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +534,1081 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:BB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="35" max="35" width="13.109375" customWidth="1"/>
+    <col min="36" max="36" width="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.5546875" customWidth="1"/>
+    <col min="42" max="42" width="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.5546875" customWidth="1"/>
+    <col min="48" max="48" width="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <f>5-MAX(0,C3-D3)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <f>_xlfn.CEILING.MATH((6-E3)*F3/5)</f>
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E7" si="0">5-MAX(0,C4-D4)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <f>_xlfn.CEILING.MATH((6-E4)*F4/5)</f>
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G4:G7" si="1">_xlfn.CEILING.MATH((6-E5)*F5/5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <f>5-MAX(0,C11-D11)</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <f>_xlfn.CEILING.MATH((6-E11)*F11/5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:E15" si="2">5-MAX(0,C12-D12)</f>
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12:G15" si="3">_xlfn.CEILING.MATH((6-E12)*F12/5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <f>5-MAX(0,C19-D19)</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <f>_xlfn.CEILING.MATH((6-E19)*F19/5)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" ref="E20:E23" si="4">5-MAX(0,C20-D20)</f>
+        <v>4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" ref="G20:G23" si="5">_xlfn.CEILING.MATH((6-E20)*F20/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <f>5-MAX(0,C27-D27)</f>
+        <v>5</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <f>_xlfn.CEILING.MATH((6-E27)*F27/5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
+        <f t="shared" ref="E28:E31" si="6">5-MAX(0,C28-D28)</f>
+        <v>5</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4">
+        <f t="shared" ref="G28:G31" si="7">_xlfn.CEILING.MATH((6-E28)*F28/5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
+        <f>5-MAX(0,C35-D35)</f>
+        <v>5</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <f>_xlfn.CEILING.MATH((6-E35)*F35/5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4">
+        <f t="shared" ref="E36:E39" si="8">5-MAX(0,C36-D36)</f>
+        <v>5</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4">
+        <f t="shared" ref="G36:G38" si="9">_xlfn.CEILING.MATH((6-E36)*F36/5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:52" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:52" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4">
+        <f>_xlfn.CEILING.MATH((6-E39)*F39/5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="AJ48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="12"/>
+      <c r="AP48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ48" s="6"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="6"/>
+      <c r="AT48" s="6"/>
+      <c r="AV48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="6"/>
+      <c r="AY48" s="6"/>
+      <c r="AZ48" s="6"/>
+    </row>
+    <row r="49" spans="35:54" x14ac:dyDescent="0.3">
+      <c r="AI49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ49" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="35:54" x14ac:dyDescent="0.3">
+      <c r="AI50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ50" s="4">
+        <v>3</v>
+      </c>
+      <c r="AK50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL50" s="4">
+        <f>5-MAX(0,AJ50-AK50)</f>
+        <v>3</v>
+      </c>
+      <c r="AM50" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN50" s="4">
+        <f>_xlfn.CEILING.MATH((6-AL50)*AM50/5)</f>
+        <v>2</v>
+      </c>
+      <c r="AP50" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="4">
+        <f>5-MAX(0,AP50-AQ50)</f>
+        <v>4</v>
+      </c>
+      <c r="AS50" s="4">
+        <v>3</v>
+      </c>
+      <c r="AT50" s="4">
+        <f>_xlfn.CEILING.MATH((6-AR50)*AS50/5)</f>
+        <v>2</v>
+      </c>
+      <c r="AV50" s="4">
+        <v>2</v>
+      </c>
+      <c r="AW50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX50" s="4">
+        <f>5-MAX(0,AV50-AW50)</f>
+        <v>4</v>
+      </c>
+      <c r="AY50" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ50" s="4">
+        <f>_xlfn.CEILING.MATH((6-AX50)*AY50/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="35:54" x14ac:dyDescent="0.3">
+      <c r="AI51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ51" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="4">
+        <f t="shared" ref="AL51:AL54" si="10">5-MAX(0,AJ51-AK51)</f>
+        <v>2</v>
+      </c>
+      <c r="AM51" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN51" s="4">
+        <f>_xlfn.CEILING.MATH((6-AL51)*AM51/5)</f>
+        <v>4</v>
+      </c>
+      <c r="AP51" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR51" s="4">
+        <f t="shared" ref="AR51:AR54" si="11">5-MAX(0,AP51-AQ51)</f>
+        <v>4</v>
+      </c>
+      <c r="AS51" s="4">
+        <v>3</v>
+      </c>
+      <c r="AT51" s="4">
+        <f t="shared" ref="AT51:AT54" si="12">_xlfn.CEILING.MATH((6-AR51)*AS51/5)</f>
+        <v>2</v>
+      </c>
+      <c r="AV51" s="4">
+        <v>2</v>
+      </c>
+      <c r="AW51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX51" s="4">
+        <f t="shared" ref="AX51:AX54" si="13">5-MAX(0,AV51-AW51)</f>
+        <v>4</v>
+      </c>
+      <c r="AY51" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ51" s="4">
+        <f t="shared" ref="AZ51:AZ54" si="14">_xlfn.CEILING.MATH((6-AX51)*AY51/5)</f>
+        <v>1</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="35:54" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AI52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ52" s="4">
+        <v>5</v>
+      </c>
+      <c r="AK52" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL52" s="4">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AM52" s="4">
+        <v>5</v>
+      </c>
+      <c r="AN52" s="4">
+        <f t="shared" ref="AN52:AN54" si="15">_xlfn.CEILING.MATH((6-AL52)*AM52/5)</f>
+        <v>4</v>
+      </c>
+      <c r="AP52" s="4">
+        <v>4</v>
+      </c>
+      <c r="AQ52" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR52" s="4">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AS52" s="4">
+        <v>4</v>
+      </c>
+      <c r="AT52" s="4">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AV52" s="4">
+        <v>4</v>
+      </c>
+      <c r="AW52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX52" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AY52" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ52" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="35:54" x14ac:dyDescent="0.3">
+      <c r="AI53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AK53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL53" s="4">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AM53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AN53" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP53" s="4">
+        <v>4</v>
+      </c>
+      <c r="AQ53" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR53" s="4">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AS53" s="4">
+        <v>4</v>
+      </c>
+      <c r="AT53" s="4">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AV53" s="4">
+        <v>4</v>
+      </c>
+      <c r="AW53" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX53" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AY53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ53" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="35:54" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AI54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ54" s="4">
+        <v>5</v>
+      </c>
+      <c r="AK54" s="4">
+        <v>3</v>
+      </c>
+      <c r="AL54" s="4">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AM54" s="4">
+        <v>5</v>
+      </c>
+      <c r="AN54" s="4">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AP54" s="4">
+        <v>4</v>
+      </c>
+      <c r="AQ54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR54" s="4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AS54" s="4">
+        <v>4</v>
+      </c>
+      <c r="AT54" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AV54" s="4">
+        <v>4</v>
+      </c>
+      <c r="AW54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX54" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AY54" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ54" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AP48:AT48"/>
+    <mergeCell ref="AV48:AZ48"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B33:G33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Deliverables/sSQA.xlsx
+++ b/Deliverables/sSQA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Architecture\Architecture\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDEFA71-7156-4240-BF85-AA95639DAF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38FC299-59BB-45FD-92E6-504F09654B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="79" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Deliverables/sSQA.xlsx
+++ b/Deliverables/sSQA.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Architecture\Architecture\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmusherskind/ITU/Architecture/Deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDEFA71-7156-4240-BF85-AA95639DAF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9706B74A-42FD-A84D-BA53-76B620A95AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="3780" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Focus evaluation" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
   <si>
     <t>Component</t>
   </si>
@@ -151,12 +155,24 @@
   <si>
     <t>They also lack implementations for different bookmakers, which is why modifiablity is high focus</t>
   </si>
+  <si>
+    <t>Commulative</t>
+  </si>
+  <si>
+    <t>Actor model</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>hej</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +183,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,11 +259,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,8 +278,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,6 +293,2107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Focus for Quality Attributes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$8:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Event Broker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Odds Updater</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Actor model</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Load Balancer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Combo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$8:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-882E-DD4E-976E-F90EB492F952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modifiability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$8:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Event Broker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Odds Updater</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Actor model</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Load Balancer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Combo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$F$8:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-882E-DD4E-976E-F90EB492F952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Safety</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$8:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Event Broker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Odds Updater</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Actor model</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Load Balancer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Combo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$G$8:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-882E-DD4E-976E-F90EB492F952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="162302975"/>
+        <c:axId val="162505055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="162302975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162505055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="162505055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162302975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Commulative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$8:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Event Broker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Odds Updater</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Actor model</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Load Balancer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Combo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$H$8:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD33-6642-976C-24756581C750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="539035359"/>
+        <c:axId val="408523903"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539035359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408523903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="408523903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539035359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91037D55-3C2A-4847-B38E-4F95F2CBBE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>132686</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19618</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F721EE-67A8-1F4B-BA63-8EDE09C5B02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>Performance</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>Modifiability</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>Safety</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>Commulative</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>Event Broker</v>
+          </cell>
+          <cell r="E8">
+            <v>2</v>
+          </cell>
+          <cell r="F8">
+            <v>2</v>
+          </cell>
+          <cell r="G8">
+            <v>1</v>
+          </cell>
+          <cell r="H8">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9" t="str">
+            <v>Odds Updater</v>
+          </cell>
+          <cell r="E9">
+            <v>4</v>
+          </cell>
+          <cell r="F9">
+            <v>2</v>
+          </cell>
+          <cell r="G9">
+            <v>1</v>
+          </cell>
+          <cell r="H9">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>Actor model</v>
+          </cell>
+          <cell r="E10">
+            <v>4</v>
+          </cell>
+          <cell r="F10">
+            <v>3</v>
+          </cell>
+          <cell r="G10">
+            <v>4</v>
+          </cell>
+          <cell r="H10">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11" t="str">
+            <v>Load Balancer</v>
+          </cell>
+          <cell r="E11">
+            <v>4</v>
+          </cell>
+          <cell r="F11">
+            <v>4</v>
+          </cell>
+          <cell r="G11">
+            <v>4</v>
+          </cell>
+          <cell r="H11">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12" t="str">
+            <v>Combo</v>
+          </cell>
+          <cell r="E12">
+            <v>4</v>
+          </cell>
+          <cell r="F12">
+            <v>4</v>
+          </cell>
+          <cell r="G12">
+            <v>4</v>
+          </cell>
+          <cell r="H12">
+            <v>12</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,48 +2661,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="79" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="35" max="35" width="13.109375" customWidth="1"/>
+    <col min="35" max="35" width="13.1640625" customWidth="1"/>
     <col min="36" max="36" width="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="39" max="40" width="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.5546875" customWidth="1"/>
+    <col min="41" max="41" width="2.5" customWidth="1"/>
     <col min="42" max="42" width="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="2.5546875" customWidth="1"/>
+    <col min="47" max="47" width="2.5" customWidth="1"/>
     <col min="48" max="48" width="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +2719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -623,7 +2744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -648,7 +2769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -666,11 +2787,11 @@
         <v>5</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G4:G7" si="1">_xlfn.CEILING.MATH((6-E5)*F5/5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G5:G7" si="1">_xlfn.CEILING.MATH((6-E5)*F5/5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -692,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -714,17 +2835,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +2865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -766,7 +2887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -788,7 +2909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -813,7 +2934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
@@ -835,7 +2956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
@@ -860,17 +2981,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +3014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -918,7 +3039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
@@ -940,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
@@ -962,7 +3083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -983,11 +3104,11 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1009,17 +3130,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="2:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +3160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1071,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +3226,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1121,17 +3242,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="2:52" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +3272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:52" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1167,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:52" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:52" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:52" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +3323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:52" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +3341,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:52" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:52" ht="32" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
@@ -1236,14 +3357,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="AJ48" s="12" t="s">
+    <row r="48" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="AJ48" t="s">
         <v>12</v>
       </c>
-      <c r="AK48" s="12"/>
-      <c r="AL48" s="12"/>
-      <c r="AM48" s="12"/>
-      <c r="AN48" s="12"/>
       <c r="AP48" s="6" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +3376,7 @@
       <c r="AY48" s="6"/>
       <c r="AZ48" s="6"/>
     </row>
-    <row r="49" spans="35:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="35:54" ht="16" x14ac:dyDescent="0.2">
       <c r="AI49" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +3426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="35:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="35:54" ht="16" x14ac:dyDescent="0.2">
       <c r="AI50" s="2" t="s">
         <v>6</v>
       </c>
@@ -1365,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="35:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="35:54" ht="16" x14ac:dyDescent="0.2">
       <c r="AI51" s="2" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +3541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="35:54" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="35:54" ht="32" x14ac:dyDescent="0.2">
       <c r="AI52" s="2" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +3600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="35:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="35:54" ht="16" x14ac:dyDescent="0.2">
       <c r="AI53" s="2" t="s">
         <v>9</v>
       </c>
@@ -1539,7 +3656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="35:54" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="35:54" ht="32" x14ac:dyDescent="0.2">
       <c r="AI54" s="2" t="s">
         <v>10</v>
       </c>
@@ -1611,4 +3728,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD781A43-2393-7249-BAD4-C623455F7A3A}">
+  <dimension ref="E6:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="5:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>SUM(F7:H7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I11" si="0">SUM(F8:H8)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Deliverables/sSQA.xlsx
+++ b/Deliverables/sSQA.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Architecture\Architecture\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmusherskind/ITU/Architecture/Deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38FC299-59BB-45FD-92E6-504F09654B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA0CF0-BAF8-3843-9BA5-19ED2E97243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9720" yWindow="3780" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Focus evaluation" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
   <si>
     <t>Component</t>
   </si>
@@ -151,12 +155,24 @@
   <si>
     <t>They also lack implementations for different bookmakers, which is why modifiablity is high focus</t>
   </si>
+  <si>
+    <t>Commulative</t>
+  </si>
+  <si>
+    <t>Actor model</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>hej</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +183,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,11 +259,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,8 +278,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,6 +293,2107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Focus for Quality Attributes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$8:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Event Broker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Odds Updater</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Actor model</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Load Balancer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Combo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$8:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-882E-DD4E-976E-F90EB492F952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modifiability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$8:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Event Broker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Odds Updater</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Actor model</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Load Balancer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Combo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$F$8:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-882E-DD4E-976E-F90EB492F952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Safety</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$8:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Event Broker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Odds Updater</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Actor model</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Load Balancer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Combo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$G$8:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-882E-DD4E-976E-F90EB492F952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="162302975"/>
+        <c:axId val="162505055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="162302975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162505055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="162505055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162302975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Commulative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$8:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Event Broker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Odds Updater</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Actor model</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Load Balancer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Combo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$H$8:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD33-6642-976C-24756581C750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="539035359"/>
+        <c:axId val="408523903"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539035359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408523903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="408523903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539035359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91037D55-3C2A-4847-B38E-4F95F2CBBE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>132686</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19618</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F721EE-67A8-1F4B-BA63-8EDE09C5B02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>Performance</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>Modifiability</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>Safety</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>Commulative</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>Event Broker</v>
+          </cell>
+          <cell r="E8">
+            <v>2</v>
+          </cell>
+          <cell r="F8">
+            <v>2</v>
+          </cell>
+          <cell r="G8">
+            <v>1</v>
+          </cell>
+          <cell r="H8">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9" t="str">
+            <v>Odds Updater</v>
+          </cell>
+          <cell r="E9">
+            <v>4</v>
+          </cell>
+          <cell r="F9">
+            <v>2</v>
+          </cell>
+          <cell r="G9">
+            <v>1</v>
+          </cell>
+          <cell r="H9">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>Actor model</v>
+          </cell>
+          <cell r="E10">
+            <v>4</v>
+          </cell>
+          <cell r="F10">
+            <v>3</v>
+          </cell>
+          <cell r="G10">
+            <v>4</v>
+          </cell>
+          <cell r="H10">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11" t="str">
+            <v>Load Balancer</v>
+          </cell>
+          <cell r="E11">
+            <v>4</v>
+          </cell>
+          <cell r="F11">
+            <v>4</v>
+          </cell>
+          <cell r="G11">
+            <v>4</v>
+          </cell>
+          <cell r="H11">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12" t="str">
+            <v>Combo</v>
+          </cell>
+          <cell r="E12">
+            <v>4</v>
+          </cell>
+          <cell r="F12">
+            <v>4</v>
+          </cell>
+          <cell r="G12">
+            <v>4</v>
+          </cell>
+          <cell r="H12">
+            <v>12</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,48 +2661,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="79" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A5" zoomScale="79" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="35" max="35" width="13.109375" customWidth="1"/>
+    <col min="35" max="35" width="13.1640625" customWidth="1"/>
     <col min="36" max="36" width="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="39" max="40" width="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.5546875" customWidth="1"/>
+    <col min="41" max="41" width="2.5" customWidth="1"/>
     <col min="42" max="42" width="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="2.5546875" customWidth="1"/>
+    <col min="47" max="47" width="2.5" customWidth="1"/>
     <col min="48" max="48" width="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +2719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -623,7 +2744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -648,7 +2769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -666,11 +2787,11 @@
         <v>5</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G4:G7" si="1">_xlfn.CEILING.MATH((6-E5)*F5/5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G5:G7" si="1">_xlfn.CEILING.MATH((6-E5)*F5/5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -692,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -714,17 +2835,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +2865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -766,7 +2887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -788,7 +2909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -813,7 +2934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
@@ -835,7 +2956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
@@ -860,17 +2981,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +3014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -918,7 +3039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
@@ -940,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
@@ -962,7 +3083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -983,11 +3104,11 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1009,17 +3130,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="2:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +3160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1071,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +3226,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1121,17 +3242,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="2:52" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +3272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:52" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1167,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:52" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:52" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:52" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +3323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:52" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:52" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +3341,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:52" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:52" ht="32" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
@@ -1236,14 +3357,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="AJ48" s="12" t="s">
+    <row r="48" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="AJ48" t="s">
         <v>12</v>
       </c>
-      <c r="AK48" s="12"/>
-      <c r="AL48" s="12"/>
-      <c r="AM48" s="12"/>
-      <c r="AN48" s="12"/>
       <c r="AP48" s="6" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +3376,7 @@
       <c r="AY48" s="6"/>
       <c r="AZ48" s="6"/>
     </row>
-    <row r="49" spans="35:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="35:54" ht="16" x14ac:dyDescent="0.2">
       <c r="AI49" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +3426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="35:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="35:54" ht="16" x14ac:dyDescent="0.2">
       <c r="AI50" s="2" t="s">
         <v>6</v>
       </c>
@@ -1365,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="35:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="35:54" ht="16" x14ac:dyDescent="0.2">
       <c r="AI51" s="2" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +3541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="35:54" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="35:54" ht="32" x14ac:dyDescent="0.2">
       <c r="AI52" s="2" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +3600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="35:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="35:54" ht="16" x14ac:dyDescent="0.2">
       <c r="AI53" s="2" t="s">
         <v>9</v>
       </c>
@@ -1539,7 +3656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="35:54" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="35:54" ht="32" x14ac:dyDescent="0.2">
       <c r="AI54" s="2" t="s">
         <v>10</v>
       </c>
@@ -1611,4 +3728,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD781A43-2393-7249-BAD4-C623455F7A3A}">
+  <dimension ref="E6:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="5:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>SUM(F7:H7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I11" si="0">SUM(F8:H8)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Deliverables/sSQA.xlsx
+++ b/Deliverables/sSQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmusherskind/ITU/Architecture/Deliverables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgrum\Documents\Programming\Architecture\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA0CF0-BAF8-3843-9BA5-19ED2E97243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D063210-BC3A-43AF-B944-50186767E1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="3780" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16200" yWindow="1335" windowWidth="16755" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -298,7 +299,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -378,7 +379,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Performance</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -394,27 +395,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet1!$D$8:$D$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Event Broker</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Odds Updater</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Actor model</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Load Balancer</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Combo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -423,19 +425,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -455,7 +457,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Modifiability</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -471,27 +473,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet1!$D$8:$D$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Event Broker</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Odds Updater</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Actor model</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Load Balancer</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Combo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -500,19 +503,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,7 +535,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Safety</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -548,27 +551,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet1!$D$8:$D$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Event Broker</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Odds Updater</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Actor model</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Load Balancer</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Combo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -577,19 +581,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,7 +801,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -854,7 +858,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Commulative</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -870,27 +874,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet1!$D$8:$D$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Event Broker</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Odds Updater</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Actor model</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Load Balancer</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Combo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -899,19 +904,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,6 +2288,19 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
@@ -2295,20 +2313,8 @@
           <cell r="E7" t="str">
             <v>Performance</v>
           </cell>
-          <cell r="F7" t="str">
-            <v>Modifiability</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>Safety</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>Commulative</v>
-          </cell>
         </row>
         <row r="8">
-          <cell r="D8" t="str">
-            <v>Event Broker</v>
-          </cell>
           <cell r="E8">
             <v>2</v>
           </cell>
@@ -2323,9 +2329,6 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="D9" t="str">
-            <v>Odds Updater</v>
-          </cell>
           <cell r="E9">
             <v>4</v>
           </cell>
@@ -2340,9 +2343,6 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="D10" t="str">
-            <v>Actor model</v>
-          </cell>
           <cell r="E10">
             <v>4</v>
           </cell>
@@ -2357,9 +2357,6 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="D11" t="str">
-            <v>Load Balancer</v>
-          </cell>
           <cell r="E11">
             <v>4</v>
           </cell>
@@ -2374,9 +2371,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="D12" t="str">
-            <v>Combo</v>
-          </cell>
           <cell r="E12">
             <v>4</v>
           </cell>
@@ -2661,32 +2655,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB54"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="79" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="79" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="35" max="35" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" customWidth="1"/>
     <col min="36" max="36" width="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="40" width="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.5" customWidth="1"/>
+    <col min="41" max="41" width="2.42578125" customWidth="1"/>
     <col min="42" max="42" width="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="2.5" customWidth="1"/>
+    <col min="47" max="47" width="2.42578125" customWidth="1"/>
     <col min="48" max="48" width="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
@@ -2699,7 +2693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2727,24 +2721,24 @@
         <v>3</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="4">
         <f>5-MAX(0,C3-D3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4">
         <f>_xlfn.CEILING.MATH((6-E3)*F3/5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2769,7 +2763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +2785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2813,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2835,7 +2829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2845,7 +2839,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2865,7 +2859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2887,7 +2881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2909,7 +2903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -2917,24 +2911,24 @@
         <v>4</v>
       </c>
       <c r="D13" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4">
         <v>4</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
@@ -2942,21 +2936,21 @@
         <v>4</v>
       </c>
       <c r="D14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="4">
         <v>4</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2964,24 +2958,24 @@
         <v>4</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
@@ -2991,7 +2985,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3014,7 +3008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -3039,7 +3033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
@@ -3061,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
@@ -3069,21 +3063,21 @@
         <v>4</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
         <v>5</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -3091,24 +3085,24 @@
         <v>4</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
@@ -3130,7 +3124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -3140,7 +3134,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
@@ -3176,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
@@ -3192,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
@@ -3208,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
@@ -3226,7 +3220,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
@@ -3242,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>16</v>
       </c>
@@ -3252,7 +3246,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="2:52" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:52" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +3266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:52" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -3288,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:52" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:52" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:52" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
@@ -3323,7 +3317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:52" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
@@ -3341,7 +3335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:52" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:52" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
@@ -3357,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:52" x14ac:dyDescent="0.25">
       <c r="AJ48" t="s">
         <v>12</v>
       </c>
@@ -3376,7 +3370,7 @@
       <c r="AY48" s="6"/>
       <c r="AZ48" s="6"/>
     </row>
-    <row r="49" spans="35:54" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="35:54" x14ac:dyDescent="0.25">
       <c r="AI49" s="1" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +3420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="35:54" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="35:54" x14ac:dyDescent="0.25">
       <c r="AI50" s="2" t="s">
         <v>6</v>
       </c>
@@ -3482,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="35:54" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="35:54" ht="30" x14ac:dyDescent="0.25">
       <c r="AI51" s="2" t="s">
         <v>7</v>
       </c>
@@ -3541,7 +3535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="35:54" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="35:54" ht="30" x14ac:dyDescent="0.25">
       <c r="AI52" s="2" t="s">
         <v>8</v>
       </c>
@@ -3600,7 +3594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="35:54" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="35:54" ht="30" x14ac:dyDescent="0.25">
       <c r="AI53" s="2" t="s">
         <v>9</v>
       </c>
@@ -3656,7 +3650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="35:54" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="35:54" ht="45" x14ac:dyDescent="0.25">
       <c r="AI54" s="2" t="s">
         <v>10</v>
       </c>
@@ -3734,13 +3728,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD781A43-2393-7249-BAD4-C623455F7A3A}">
   <dimension ref="E6:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+    <sheetView zoomScale="67" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="5:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>6</v>
       </c>
@@ -3778,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>7</v>
       </c>
@@ -3796,7 +3790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>35</v>
       </c>
@@ -3814,7 +3808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>9</v>
       </c>
@@ -3832,7 +3826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>36</v>
       </c>

--- a/Deliverables/sSQA.xlsx
+++ b/Deliverables/sSQA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgrum\Documents\Programming\Architecture\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D063210-BC3A-43AF-B944-50186767E1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3EA01F-4A8B-4AE5-9B77-80604F8A0990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16200" yWindow="1335" windowWidth="16755" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
